--- a/Self-Avoiding-Random-Walk-Data.xlsx
+++ b/Self-Avoiding-Random-Walk-Data.xlsx
@@ -24,7 +24,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -43,6 +43,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFEBEBEB"/>
+      <name val="Monospace"/>
       <family val="0"/>
     </font>
   </fonts>
@@ -88,8 +94,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -102,7 +112,1511 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFEBEBEB"/>
+      <rgbColor rgb="FFCE181E"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF420E"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF00A65D"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0609679446888749"/>
+          <c:y val="0.052311775387624"/>
+          <c:w val="0.731143934632307"/>
+          <c:h val="0.865903059086465"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.00043537343167</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.67369091124979</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.96177289338628</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8467749383221</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.38863675343351</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.64716281647031</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.60636964523662</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.47744633692626</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.19348061268916</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.73152961198992</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.29752166972308</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.80597187223769</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.33109489821497</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.78003746850139</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.30407535918308</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.80488014037495</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.33287267306094</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.92660329564495</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.52611251104925</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.15040502922279</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.78456601184743</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.47815216961093</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.20730042086098</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.96706004195417</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.72987387363616</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.5098189901975</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.35098354816154</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.15685647189203</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.02547594231962</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.899705793105268</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.761026161985303</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.705760122432286</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.566368062060504</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.522243624417853</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.441029987994248</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.374711400187342</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.347906249587715</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.265765795480032</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="61374312"/>
+        <c:axId val="6184107"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="61374312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="6184107"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="6184107"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="61374312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="9867593"/>
+        <c:axId val="43901810"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.00043537343167</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.67369091124979</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.96177289338628</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8467749383221</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.38863675343351</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.64716281647031</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.60636964523662</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.47744633692626</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.19348061268916</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.73152961198992</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.29752166972308</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.80597187223769</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.33109489821497</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.78003746850139</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.30407535918308</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.80488014037495</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.33287267306094</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.92660329564495</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.52611251104925</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.15040502922279</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.78456601184743</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.47815216961093</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.20730042086098</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.96706004195417</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.72987387363616</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.5098189901975</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.35098354816154</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.15685647189203</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.02547594231962</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.899705793105268</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.761026161985303</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.705760122432286</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.566368062060504</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.522243624417853</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.441029987994248</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.374711400187342</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.347906249587715</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.265765795480032</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="5017826"/>
+        <c:axId val="98853939"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="9867593"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="43901810"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="43901810"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="9867593"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="5017826"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="98853939"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="98853939"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="5017826"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ce181e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ce181e"/>
+              </a:solidFill>
+              <a:custDash/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ce181e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$10:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>8.47744633692626</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.19348061268916</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.73152961198992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.29752166972308</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.80597187223769</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.33109489821497</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.78003746850139</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.30407535918308</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.80488014037495</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.33287267306094</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.92660329564495</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.52611251104925</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.15040502922279</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.78456601184743</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.47815216961093</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.20730042086098</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.96706004195417</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.72987387363616</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5098189901975</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.35098354816154</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.15685647189203</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.02547594231962</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.899705793105268</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.761026161985303</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.705760122432286</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.566368062060504</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.522243624417853</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.441029987994248</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.374711400187342</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.347906249587715</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.265765795480032</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="46202454"/>
+        <c:axId val="75942998"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="46202454"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="75942998"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="75942998"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="46202454"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:solidFill>
+        <a:srgbClr val="00a65d"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>27360</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>545400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>138960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="13032000" y="0"/>
+        <a:ext cx="4582080" cy="2577240"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>23040</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>559440</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="13027680" y="2610360"/>
+        <a:ext cx="4600440" cy="2587680"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>730080</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>7200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>800280</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>158400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6419520" y="7200"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -110,10 +1624,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A40"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
+      <selection pane="topLeft" activeCell="O170" activeCellId="0" sqref="O170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -125,200 +1639,320 @@
       <c r="A1" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="B2" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="B3" s="1" t="n">
+        <v>4.00043537343167</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="B4" s="1" t="n">
+        <v>5.67369091124979</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="B5" s="1" t="n">
+        <v>6.96177289338628</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="B6" s="1" t="n">
+        <v>7.8467749383221</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>7</v>
       </c>
+      <c r="B7" s="1" t="n">
+        <v>8.38863675343351</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="B8" s="1" t="n">
+        <v>8.64716281647031</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="B9" s="1" t="n">
+        <v>8.60636964523662</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="B10" s="1" t="n">
+        <v>8.47744633692626</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>11</v>
       </c>
+      <c r="B11" s="1" t="n">
+        <v>8.19348061268916</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="B12" s="1" t="n">
+        <v>7.73152961198992</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>13</v>
       </c>
+      <c r="B13" s="1" t="n">
+        <v>7.29752166972308</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>14</v>
       </c>
+      <c r="B14" s="1" t="n">
+        <v>6.80597187223769</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>15</v>
       </c>
+      <c r="B15" s="1" t="n">
+        <v>6.33109489821497</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>16</v>
       </c>
+      <c r="B16" s="1" t="n">
+        <v>5.78003746850139</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>17</v>
       </c>
+      <c r="B17" s="1" t="n">
+        <v>5.30407535918308</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>18</v>
       </c>
+      <c r="B18" s="1" t="n">
+        <v>4.80488014037495</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>19</v>
       </c>
+      <c r="B19" s="1" t="n">
+        <v>4.33287267306094</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>20</v>
       </c>
+      <c r="B20" s="1" t="n">
+        <v>3.92660329564495</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>21</v>
       </c>
+      <c r="B21" s="1" t="n">
+        <v>3.52611251104925</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>22</v>
       </c>
+      <c r="B22" s="1" t="n">
+        <v>3.15040502922279</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>23</v>
       </c>
+      <c r="B23" s="1" t="n">
+        <v>2.78456601184743</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>24</v>
       </c>
+      <c r="B24" s="1" t="n">
+        <v>2.47815216961093</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>25</v>
       </c>
+      <c r="B25" s="1" t="n">
+        <v>2.20730042086098</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>26</v>
       </c>
+      <c r="B26" s="1" t="n">
+        <v>1.96706004195417</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>27</v>
       </c>
+      <c r="B27" s="1" t="n">
+        <v>1.72987387363616</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>28</v>
       </c>
+      <c r="B28" s="1" t="n">
+        <v>1.5098189901975</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>29</v>
       </c>
+      <c r="B29" s="1" t="n">
+        <v>1.35098354816154</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>30</v>
       </c>
+      <c r="B30" s="1" t="n">
+        <v>1.15685647189203</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>31</v>
       </c>
+      <c r="B31" s="1" t="n">
+        <v>1.02547594231962</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="B32" s="1" t="n">
+        <v>0.899705793105268</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>33</v>
       </c>
+      <c r="B33" s="1" t="n">
+        <v>0.761026161985303</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>34</v>
       </c>
+      <c r="B34" s="1" t="n">
+        <v>0.705760122432286</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>35</v>
       </c>
+      <c r="B35" s="1" t="n">
+        <v>0.566368062060504</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>36</v>
       </c>
+      <c r="B36" s="1" t="n">
+        <v>0.522243624417853</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>37</v>
       </c>
+      <c r="B37" s="1" t="n">
+        <v>0.441029987994248</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>38</v>
       </c>
+      <c r="B38" s="1" t="n">
+        <v>0.374711400187342</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>39</v>
       </c>
+      <c r="B39" s="1" t="n">
+        <v>0.347906249587715</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <v>40</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>0.265765795480032</v>
       </c>
     </row>
   </sheetData>
@@ -329,5 +1963,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>